--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CB33B5-C19A-40C7-89D6-21B9E73FB3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F05F97-5B6E-4047-96F9-5F62225C3181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{2EAFECD2-2867-4527-82C9-F5C70F2CCE79}"/>
+    <workbookView xWindow="4164" yWindow="1788" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD32E99-6AA5-4C44-A102-14E13C77D089}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_mercedes" sheetId="1" r:id="rId1"/>
+    <sheet name="doFindDealer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,36 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>email</t>
+    <t>zipCode</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>tinatebany@gmail.com</t>
-  </si>
-  <si>
-    <t>Qwerty2023/*-</t>
+    <t>philadelphia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,16 +63,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,38 +381,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3B63C8-D06D-464B-B52F-EECD5009EE1E}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89226B23-0A8C-4780-BCF0-028B6FB34601}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{97B590D4-CBE6-4D8A-A473-EFC8A6C25CAC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F05F97-5B6E-4047-96F9-5F62225C3181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C4B2AC-DD02-47F1-AD68-82439F87E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="1788" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD32E99-6AA5-4C44-A102-14E13C77D089}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{BBD32E99-6AA5-4C44-A102-14E13C77D089}"/>
   </bookViews>
   <sheets>
     <sheet name="doFindDealer" sheetId="1" r:id="rId1"/>
+    <sheet name="doSignIn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,25 +26,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>zipCode</t>
   </si>
   <si>
-    <t>philadelphia</t>
+    <t>Qwerty2023/*-</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Washington D.C</t>
+  </si>
+  <si>
+    <t>tinatebany@gmail.com</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>abdullah.noor14@gmail.com</t>
+  </si>
+  <si>
+    <t>Serpent9999+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,13 +101,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,28 +427,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89226B23-0A8C-4780-BCF0-028B6FB34601}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1451E628-F742-4827-83F5-88A6F480FDA5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B4455B32-3A4D-4DCC-8BC6-368C06476B07}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>